--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2837.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2837.xlsx
@@ -354,7 +354,7 @@
         <v>2.441052136911893</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.361624370574798</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2837.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2837.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171618285341884</v>
+        <v>1.149220824241638</v>
       </c>
       <c r="B1">
-        <v>2.441052136911893</v>
+        <v>2.253112554550171</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.480283260345459</v>
       </c>
       <c r="D1">
-        <v>2.361624370574798</v>
+        <v>2.676498651504517</v>
       </c>
       <c r="E1">
-        <v>1.237021837333652</v>
+        <v>1.246300458908081</v>
       </c>
     </row>
   </sheetData>
